--- a/2-1/Corporate Finance/cal_for_assignment1.xlsx
+++ b/2-1/Corporate Finance/cal_for_assignment1.xlsx
@@ -118,7 +118,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +132,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -152,18 +163,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -475,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -486,14 +510,18 @@
     <col min="1" max="1" width="21.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -510,7 +538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -539,8 +567,28 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="M3">
+        <v>7800000</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f>$M$3/$M$4^N3</f>
+        <v>7090909.0909090899</v>
+      </c>
+      <c r="Q3">
+        <v>10000000</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f>$Q$3/$Q$4^R3</f>
+        <v>8833922.2614840996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -569,8 +617,28 @@
       <c r="H4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="M4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O10" si="1">$M$3/$M$4^N4</f>
+        <v>6446280.9917355366</v>
+      </c>
+      <c r="Q4">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S7" si="2">$Q$3/$Q$4^R4</f>
+        <v>7803818.2521944353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -599,8 +667,22 @@
       <c r="H5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>5860255.4470323045</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>6893832.3782636365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -629,8 +711,22 @@
       <c r="H6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>5327504.9518475495</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>6089957.9313283022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="C7">
         <v>5000000</v>
       </c>
@@ -653,22 +749,69 @@
       <c r="H7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>4843186.3198614083</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>5379821.4941062741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="G8">
         <f>SUM(G3:G7)</f>
         <v>2410185.4394260882</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>4402896.6544194622</v>
+      </c>
+      <c r="S8">
+        <f>SUM(S3:S7)</f>
+        <v>35001352.317376748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>4002633.3221995104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>3638757.5656359186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="O11">
+        <f>SUM(O3:O10)</f>
+        <v>41612424.343640774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="E12" t="s">
         <v>16</v>
       </c>
@@ -676,7 +819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -695,7 +838,7 @@
         <v>303243.2432432432</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -706,15 +849,15 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E17" si="1">$B$13*$B$14*$B$15*$B$16</f>
+        <f t="shared" ref="E14:E17" si="3">$B$13*$B$14*$B$15*$B$16</f>
         <v>336600</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:F17" si="2">E14/(1+$B$17)^D14</f>
+        <f t="shared" ref="F14:F17" si="4">E14/(1+$B$17)^D14</f>
         <v>273192.11102994881</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -725,15 +868,15 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>336600</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>246119.01894589982</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -744,15 +887,15 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>336600</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>221728.84589720704</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -763,26 +906,40 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>336600</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>199755.71702451084</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="F18">
         <f>SUM(F13:F17)</f>
         <v>1244038.9361408097</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="U18" s="2">
+        <f>0.333333333333333*7%*0.65</f>
+        <v>1.5166666666666651E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="U19" s="2">
+        <f>2/3*14%</f>
+        <v>9.3333333333333338E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="U20" s="3">
+        <f>SUM(U18:U19)</f>
+        <v>0.10849999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="E21" t="s">
         <v>16</v>
       </c>
@@ -796,7 +953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -822,92 +979,105 @@
         <f>G22/(1+$B$14)^D22</f>
         <v>243243.24324324323</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="P22" s="1">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="Q22">
+        <f>P22*P23</f>
+        <v>0.81666666666666665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23:E26" si="3">$B$13*$B$22*$B$15*$B$16</f>
+        <f t="shared" ref="E23:E26" si="5">$B$13*$B$22*$B$15*$B$16</f>
         <v>244800.00000000003</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:F26" si="4">E23/(1+$B$14)^D23</f>
+        <f t="shared" ref="F23:F26" si="6">E23/(1+$B$14)^D23</f>
         <v>198685.17165814462</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:G26" si="5">$B$16*$B$13*($B$14-$B$22)</f>
+        <f t="shared" ref="G23:G26" si="7">$B$16*$B$13*($B$14-$B$22)</f>
         <v>270000</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H26" si="6">G23/(1+$B$14)^D23</f>
+        <f t="shared" ref="H23:H26" si="8">G23/(1+$B$14)^D23</f>
         <v>219138.05697589478</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="P23">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>244800.00000000003</v>
       </c>
       <c r="F24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>178995.65014247262</v>
       </c>
       <c r="G24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>270000</v>
       </c>
       <c r="H24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>197421.67295125657</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="P24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>244800.00000000003</v>
       </c>
       <c r="F25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>161257.34247069605</v>
       </c>
       <c r="G25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>270000</v>
       </c>
       <c r="H25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>177857.36301915004</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>244800.00000000003</v>
       </c>
       <c r="F26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>145276.88510873518</v>
       </c>
       <c r="G26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>270000</v>
       </c>
       <c r="H26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>160231.85857581082</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="F27">
         <f>SUM(F22:F26)</f>
         <v>904755.589920589</v>
@@ -917,7 +1087,7 @@
         <v>997892.19476535532</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="G28">
         <f>SUM(F27,H27)</f>
         <v>1902647.7846859442</v>
